--- a/sellingReportLangenkamp.xlsx
+++ b/sellingReportLangenkamp.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="8505" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="Tickets sold by / verkauft von Langenkamp" sheetId="1" r:id="rId1"/>
@@ -11,39 +11,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>HHaus Nr.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Haus Nr.</t>
   </si>
   <si>
     <t>Lesung</t>
   </si>
   <si>
-    <t>verkaufte Tickets</t>
-  </si>
-  <si>
-    <t>Ticket-Preis</t>
+    <t>Ticket-Voll</t>
+  </si>
+  <si>
+    <t>Preis-Voll</t>
+  </si>
+  <si>
+    <t>Ticket-Student</t>
+  </si>
+  <si>
+    <t>Preis-Student</t>
   </si>
   <si>
     <t>Gesamt</t>
   </si>
   <si>
-    <t>Die Gewitterschwimmerin</t>
-  </si>
-  <si>
-    <t>Sechs Koffer</t>
-  </si>
-  <si>
-    <t>Hochdeutschland</t>
-  </si>
-  <si>
-    <t>Das Birnenfeld</t>
-  </si>
-  <si>
-    <t>Der Test</t>
-  </si>
-  <si>
-    <t>der dritte test</t>
+    <t>Der Strom</t>
+  </si>
+  <si>
+    <t>Daniela Krien:  Die Liebe im Ernstfall</t>
+  </si>
+  <si>
+    <t>Die anderen Leben Generationengespräche Ost</t>
+  </si>
+  <si>
+    <t>Schäfchen im Trockenen</t>
+  </si>
+  <si>
+    <t>Die Hochhausspringerin</t>
+  </si>
+  <si>
+    <t>Ralf Rothmann: Hotel der Schlaflosen</t>
+  </si>
+  <si>
+    <t>Franzobel: Die Eroberung Amerikas</t>
+  </si>
+  <si>
+    <t>Karl-Markus Gauß: Abenteuerliche Reise durch mein Zimmer</t>
+  </si>
+  <si>
+    <t>Unser großes Album elektrischer Tage</t>
+  </si>
+  <si>
+    <t>Frauen und Kinder zuletzt</t>
+  </si>
+  <si>
+    <t>Gert Loschütz: Ballade vom Tag, der nicht vorüber ist</t>
+  </si>
+  <si>
+    <t>Joachim Meyerhoff: Die Zweisamkeit der Einzelgänger</t>
+  </si>
+  <si>
+    <t>Die Glasschwestern</t>
+  </si>
+  <si>
+    <t>Schwester</t>
+  </si>
+  <si>
+    <t>Ich bin dann mal nackt</t>
+  </si>
+  <si>
+    <t>Steine schmeißen</t>
+  </si>
+  <si>
+    <t>Europas längster Sommer</t>
   </si>
 </sst>
 </file>
@@ -87,13 +126,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <sheetPr/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -109,107 +149,402 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="11:11">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="12:12">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="13:13">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="14:14">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="15:15">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="16:16">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="18:18">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>14</v>
+      <c r="D18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
